--- a/updateINFO/data/teamMBE.xlsx
+++ b/updateINFO/data/teamMBE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="187">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -79,10 +79,7 @@
     <t xml:space="preserve">Full Professor</t>
   </si>
   <si>
-    <t xml:space="preserve">Genetics, Microbiology and Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evolutionary Genetics Lab</t>
+    <t xml:space="preserve">Genetics, Microbiology &amp; Statistics</t>
   </si>
   <si>
     <t xml:space="preserve">martapascual@ub.edu</t>
@@ -97,27 +94,18 @@
     <t xml:space="preserve">https://webgrec.ub.edu/webpages/000011/cat/martapascual.ub.edu.html</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.instagram.com/evogenetics.lab/</t>
+  </si>
+  <si>
     <t xml:space="preserve">martapas</t>
   </si>
   <si>
     <t xml:space="preserve">My research lines focus on the analysis of evolutionary processes and population genetic studies with different native and introduced taxa, including marine invertebrates and vertebrates, and a few other non-model yet ecologically very interesting species. We have analysed genetic connectivity among populations using different molecular markers and revealed the role of marine currents modifying gene flow in space and time. Adaptation is a key issue on a changing environment, and I am interested in identifying genes under selection and study their variation along geographic gradients. In laboratory and natural studies, we have shown that most changes occur within the first generations, indicating that both selection and drift act shaping the genetic makeup of populations. In the last years, I am interested in genomic techniques that we have applied to improve the knowledge of adaptation and dispersal in our endangered, commercial, invasive and ecosystem engineer species.</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
     <t xml:space="preserve">Francesc Mestres</t>
   </si>
   <si>
-    <t xml:space="preserve">Catedrático de Universidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genética, Microbiología y Estadística</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genètica evolutiva</t>
-  </si>
-  <si>
     <t xml:space="preserve">fmestres@ub.edu</t>
   </si>
   <si>
@@ -142,10 +130,7 @@
     <t xml:space="preserve">Conxita Avila</t>
   </si>
   <si>
-    <t xml:space="preserve">Biologia Evolutiva, Ecologia i Ciències Ambientals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benthic ecology</t>
+    <t xml:space="preserve">Evolutionary Biology, Ecology &amp; Environmental Sciences </t>
   </si>
   <si>
     <t xml:space="preserve">conxita.avila@ub.edu</t>
@@ -160,7 +145,7 @@
     <t xml:space="preserve">conxitaavi</t>
   </si>
   <si>
-    <t xml:space="preserve">to be done</t>
+    <t xml:space="preserve">Full professor at the Department of Evolutionary Biology, Ecology and Environmental Sciences, and member of the Biodiversity Research Institute (IRBio) and the Recognized research group “Marine Biodiversity and Evolution” (MBE) (Catalan Government), at the University of Barcelona. Previously she was a scientist at the National Council of Research (CSIC-CEAB) for 15 years. She works on marine invertebrates, marine chemical ecology and Antarctic benthos, and has developed her research in different institutions, such as the Institute of Biomolecular Chemistry of the National Research Council (Italy), the Woods Hole Marine Biological Laboratory (USA), and the Marine Laboratory of the University of Guam (USA), among others.Her research interests are broad, including areas such as marine chemical ecology, natural products, bioactivity, systematics and biology of marine invertebrates, global change, biodiversity and chemodiversity. She has led the ECOQUIM, ACTIQUIM, DISTANTCOM, BLUEBIO, and CHALLENGE projects on the chemical ecology, biodiversity, bioactivity, and trophic ecology of marine invertebrate communities in the Antarctic continent, a difficult region with extreme habitats. She has participated in 15 Antarctic expeditions (224 dives in polar waters), often as cruise leader, as well as in other expeditions in tropical and temperate seas. Many new bioactive molecules and new species have been discovered so far in her research group. She has been a member of the Executive Committee of the 'State of the Antarctic Ecosystems' (AntEco) Program of the Scientific Committee for Antarctic Research (SCAR) since 2013. Now she is member of the new SCAR SRP Planning Group for Integrated Science to Support Antarctic and Southern Ocean Conservation (Ant-ICON) and also of the new Plastics AG of SCAR, both started in 2019. Her former students are now leading research in different institutions at international level (SZN-CNR Italy, KAUST Saudi Arabia, UB, ICM-CSIC,…).</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -169,13 +154,7 @@
     <t xml:space="preserve">Creu Palacín</t>
   </si>
   <si>
-    <t xml:space="preserve">Assistant Professor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEECA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue DNA</t>
+    <t xml:space="preserve">Associate Professor</t>
   </si>
   <si>
     <t xml:space="preserve">cpalacin@ub.edu</t>
@@ -202,15 +181,6 @@
     <t xml:space="preserve">Carlos Carreras Huergo</t>
   </si>
   <si>
-    <t xml:space="preserve">Professor Agregat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genètica, microbiologia i Estadistica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evolutionary Genetics Group</t>
-  </si>
-  <si>
     <t xml:space="preserve">carreras@ub.edu</t>
   </si>
   <si>
@@ -223,6 +193,12 @@
     <t xml:space="preserve">https://webgrec.ub.edu/webpages/000011/cat/carreras.ub.edu.html</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.instagram.com/ccarrerashuergo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bsky.app/profile/carloscarreras.bsky.social</t>
+  </si>
+  <si>
     <t xml:space="preserve">carloscar</t>
   </si>
   <si>
@@ -232,15 +208,6 @@
     <t xml:space="preserve">Rocío Pérez-Portela</t>
   </si>
   <si>
-    <t xml:space="preserve">Associate Professor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departament de Biologia Evolutiva, Ecologia i Ciències Ambientals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTIVE team</t>
-  </si>
-  <si>
     <t xml:space="preserve">rocio_perez@ub.edu</t>
   </si>
   <si>
@@ -265,13 +232,7 @@
     <t xml:space="preserve">Owen S. Wangensteen</t>
   </si>
   <si>
-    <t xml:space="preserve">Professor lector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biologia Evolutiva, Ecologia i CIències Ambientals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marine Biodiversity and Evolution</t>
+    <t xml:space="preserve">Lecturer Professor</t>
   </si>
   <si>
     <t xml:space="preserve">owenwangensteen@ub.edu</t>
@@ -295,10 +256,7 @@
     <t xml:space="preserve">Cinta Pegueroles</t>
   </si>
   <si>
-    <t xml:space="preserve">Professora lectora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dpt. Genètica i Microbiologia de la Universitat Autònoma de Barcelona</t>
+    <t xml:space="preserve">Genetics &amp; Microbiology</t>
   </si>
   <si>
     <t xml:space="preserve">cinta.pegueroles@uab.cat</t>
@@ -322,9 +280,6 @@
     <t xml:space="preserve">Emeritus Professor</t>
   </si>
   <si>
-    <t xml:space="preserve">Marine invertebrate biodiversity</t>
-  </si>
-  <si>
     <t xml:space="preserve">mballesteros@ub.edu</t>
   </si>
   <si>
@@ -343,13 +298,16 @@
     <t xml:space="preserve">Graduated in Biology from the University of Barcelona in 1975 and PhD in Biology from the same university in 1980. Professor of Zoology at the University of Barcelona since 1983, teaching subjects in General Zoology, Invertebrates, Marine Zoology, Biology of Marine Invertebrates, Fisheries, Biology of animal species of commercial interest, Polar Oceans, Applied Zoology, among others. Specialist in the biodiversity of marine invertebrates and especially opisthobranch mollusks (Gastropoda, Heterobranchia) with more than 100 published scientific articles and some more of an informative nature. Has carried out numerous national and international research campaigns in different oceans and attended more than 50 national and international congresses or symposia. CMAS *** star sports diver, with more than 1,500 dives in the Mediterranean, Caribbean, Atlantic, Red Sea, Indian Ocean, Pacific and Antarctica. Expert in underwater photography and video. Retired since November 2022 and with the title of Emeritus Professor since October 2023.</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carles Galià Camps</t>
   </si>
   <si>
     <t xml:space="preserve">Postdoctoral researcher</t>
   </si>
   <si>
-    <t xml:space="preserve">Sociedad de Amigos del Museo Nacional deciencias Naturales</t>
+    <t xml:space="preserve">Museo Nacional de Ciencias Naturales</t>
   </si>
   <si>
     <t xml:space="preserve">cgaliacamps@gmail.com</t>
@@ -370,12 +328,6 @@
     <t xml:space="preserve">Astrid Luna-Ortiz</t>
   </si>
   <si>
-    <t xml:space="preserve">Department of Genetics, Microbiology and Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evolutionary Genetics Unit</t>
-  </si>
-  <si>
     <t xml:space="preserve">astridluna09@gmail.com</t>
   </si>
   <si>
@@ -400,12 +352,6 @@
     <t xml:space="preserve">Vanessa Arranz</t>
   </si>
   <si>
-    <t xml:space="preserve">Evolutionary biology, ecology and environmental sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptive team</t>
-  </si>
-  <si>
     <t xml:space="preserve">v.arranz@ub.edu</t>
   </si>
   <si>
@@ -430,12 +376,6 @@
     <t xml:space="preserve">Postdoctoral research</t>
   </si>
   <si>
-    <t xml:space="preserve">Evolutionary Biology, Ecology &amp; Environmental Sciences </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptive Team</t>
-  </si>
-  <si>
     <t xml:space="preserve">sgonzalezdel@ub.edu</t>
   </si>
   <si>
@@ -457,9 +397,6 @@
     <t xml:space="preserve">PhD student</t>
   </si>
   <si>
-    <t xml:space="preserve">Conxita's Lab</t>
-  </si>
-  <si>
     <t xml:space="preserve">aprofumo@ub.edu</t>
   </si>
   <si>
@@ -478,21 +415,12 @@
     <t xml:space="preserve">PhD candidate in Marine Sciences at the Universitat de Barcelona (UB), supported by an FPI fellowship from the Agencia Estatal de Investigación (AEI) and the Ministerio de Ciencia, Innovación y Universidades (MICIU). She is also affiliated with the Institut de Recerca de la Biodiversitat (IRBio). She earned a degree in Biological Systems Engineering from the Universitat Politècnica de Catalunya (UPC) and a Master’s in Oceanography and Marine Environment Management from UB, graduating with distinction for her thesis. Prófumo has completed different researchs at the Institute of Marine Sciences (ICM-CSIC), the Institute for Research and Technology in Food and Agriculture (IRTA), the Universidad de Concepción (UdeC, Chile), and the Istituto di Chimica Biomolecolare (ICB-CNR, Italy). Her research interests include marine sciences, climate change, marine natural products, and the population genetics of Antarctic marine invertebrates. Prófumo is committed to advancing knowledge on the environmental impacts of climate change on Antarctic marine biodiversity and fostering sustainable marine ecosystem management.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mariona González Pineda</t>
+    <t xml:space="preserve">Gisela Marin-Capuz</t>
   </si>
   <si>
     <t xml:space="preserve">PhD Student</t>
   </si>
   <si>
-    <t xml:space="preserve">marionagon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gisela Marin-Capuz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genètica, Microbiologia i Estadística</t>
-  </si>
-  <si>
     <t xml:space="preserve">giselamarincapuz@gmail.com</t>
   </si>
   <si>
@@ -511,9 +439,6 @@
     <t xml:space="preserve">Pere Monràs i Riera</t>
   </si>
   <si>
-    <t xml:space="preserve">Biologia i Ecologia Bentòniques</t>
-  </si>
-  <si>
     <t xml:space="preserve">pmonrasiriera@ub.edu</t>
   </si>
   <si>
@@ -559,9 +484,6 @@
     <t xml:space="preserve">Robert Fernandez Vilert</t>
   </si>
   <si>
-    <t xml:space="preserve">Rocío Pérez Portela - Adaptive team</t>
-  </si>
-  <si>
     <t xml:space="preserve">r.fernandezvilert@ub.edu</t>
   </si>
   <si>
@@ -583,9 +505,6 @@
     <t xml:space="preserve">Ainhoa López</t>
   </si>
   <si>
-    <t xml:space="preserve">Evolutionary Genetics</t>
-  </si>
-  <si>
     <t xml:space="preserve">ainhoa14ainhoa@gmail.com</t>
   </si>
   <si>
@@ -610,9 +529,6 @@
     <t xml:space="preserve">Liam Junkin Royo</t>
   </si>
   <si>
-    <t xml:space="preserve">Gentics, Microbiology and Statistics</t>
-  </si>
-  <si>
     <t xml:space="preserve">liam.junkin@gmail.com</t>
   </si>
   <si>
@@ -634,34 +550,25 @@
     <t xml:space="preserve">Aitana Merino</t>
   </si>
   <si>
+    <t xml:space="preserve">amerinre72@alumnes.ub.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://orcid.org/0009-0000-5937-2819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.es/citations?view_op=list_works&amp;hl=es&amp;user=Pp7ie7cAAAAJ&amp;gmla=AOv-ny9xwCSiAxoadH38LpB1MxFbZ7kuWGNiUjVgaDW9FSMpFBXI2s0K4SKQAatpg3MsY3N05P-ibvlYBq8dAq2pMI_YRiVOtMZubq9aSukIedzZi2TmXQ2b_gh56CPCphLUog8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aitanamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a biologist who graduated from the University of the Basque Country (UPV-EHU) and specialised in Biodiversity and Evolutionary Biology at the University of Barcelona (UB). Currently, I am a PhD student at the same institution. My research aims to address the reasons behind the recent colonization of the western Mediterranean by the loggerhead turtle (Caretta caretta) through a combination of genomic, geometric morphometry, and stable isotope analysis techniques. To achieve this, my first objective is to assess the number of breeding individuals and the connectivity among nesting regions. Secondly, I aim to identify the origin of the colonization events and the foraging grounds of the nesting females. Finally, I will cross-reference this information to evaluate the impact of female foraging strategies and the origin of the colonizers on nesting reproductive parameters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helena Vela</t>
+  </si>
+  <si>
     <t xml:space="preserve">Technician</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amerinre72@alumnes.ub.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://orcid.org/0009-0000-5937-2819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://scholar.google.es/citations?view_op=list_works&amp;hl=es&amp;user=Pp7ie7cAAAAJ&amp;gmla=AOv-ny9xwCSiAxoadH38LpB1MxFbZ7kuWGNiUjVgaDW9FSMpFBXI2s0K4SKQAatpg3MsY3N05P-ibvlYBq8dAq2pMI_YRiVOtMZubq9aSukIedzZi2TmXQ2b_gh56CPCphLUog8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aitanamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am a biologist who graduated from the University of the Basque Country (UPV-EHU) and specialised in Biodiversity and Evolutionary Biology at the University of Barcelona (UB). Currently, I am a PhD student at the same institution. My research aims to address the reasons behind the recent colonization of the western Mediterranean by the loggerhead turtle (Caretta caretta) through a combination of genomic, geometric morphometry, and stable isotope analysis techniques. To achieve this, my first objective is to assess the number of breeding individuals and the connectivity among nesting regions. Secondly, I aim to identify the origin of the colonization events and the foraging grounds of the nesting females. Finally, I will cross-reference this information to evaluate the impact of female foraging strategies and the origin of the colonizers on nesting reproductive parameters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laia Pérez Sorribes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laiaper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helena Vela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genetica, Microbiologia, Estadística i IrBIO</t>
   </si>
   <si>
     <t xml:space="preserve">helena.vela.garcia@gmail.com</t>
@@ -715,7 +622,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -723,28 +630,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -760,7 +667,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -768,18 +675,18 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,19 +696,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF176"/>
-        <bgColor rgb="FFFFD54F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC80"/>
-        <bgColor rgb="FFFFD54F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD54F"/>
-        <bgColor rgb="FFFFCC80"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -972,7 +867,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1025,6 +920,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1053,11 +952,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1097,10 +1008,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1117,10 +1024,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1133,30 +1036,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1165,10 +1044,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1183,30 +1058,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1218,23 +1069,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC80"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD54F"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1316,11 +1151,11 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC80"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD54F"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1339,8 +1174,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses1" displayName="Form_Responses1" ref="A1:P25" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:P25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses1" displayName="Form_Responses1" ref="A1:P23" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:P23"/>
   <tableColumns count="16">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="senior"/>
@@ -1539,34 +1374,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1048576"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="26.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="26.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="59.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="41.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="98.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="74.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="41.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="32.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="159.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="17" style="1" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="98.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="74.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="32.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="159.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="17" style="1" width="18.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="15" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
@@ -1635,78 +1470,76 @@
       <c r="F2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="15" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="I3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="J3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="K3" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>38</v>
+    <row r="4" s="15" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>16</v>
@@ -1714,37 +1547,35 @@
       <c r="C4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="O4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="P4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="3" t="s">
+    </row>
+    <row r="5" s="15" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" s="14" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>16</v>
@@ -1752,40 +1583,38 @@
       <c r="C5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="P5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="6" s="14" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="15" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
@@ -1796,40 +1625,42 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="P6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="7" s="14" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="15" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
@@ -1839,44 +1670,42 @@
       <c r="C7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="D7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="21"/>
       <c r="H7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>78</v>
+        <v>61</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="n">
+    <row r="8" s="15" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1885,42 +1714,40 @@
       <c r="C8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="D8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="21"/>
       <c r="H8" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>88</v>
+        <v>71</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="n">
+    <row r="9" s="15" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1929,38 +1756,38 @@
       <c r="C9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="20"/>
+      <c r="D9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="21"/>
       <c r="H9" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>96</v>
+        <v>79</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="n">
+    <row r="10" s="15" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1969,771 +1796,578 @@
       <c r="C10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="P11" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="3" t="s">
+    </row>
+    <row r="12" s="1" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="E12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="I12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="J12" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20" t="s">
+      <c r="K12" s="39"/>
+      <c r="M12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="N12" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="O12" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="30" t="n">
+    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="31" t="s">
+      <c r="D13" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32" t="s">
+      <c r="E13" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I13" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J13" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
+      <c r="K13" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21" t="s">
         <v>113</v>
       </c>
+      <c r="P13" s="37" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="30" t="n">
+    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="D14" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="E14" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="F14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I14" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J14" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="M12" s="1" t="s">
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="P14" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="35" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="P12" s="38" t="s">
+      <c r="E15" s="21" t="s">
         <v>123</v>
       </c>
+      <c r="F15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="30" t="n">
+    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" s="33" t="s">
+      <c r="D16" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31" t="s">
+      <c r="E16" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P13" s="34" t="s">
+      <c r="F16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="42" t="s">
         <v>132</v>
       </c>
+      <c r="I16" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="40" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="30" t="n">
+    <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="D17" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="E17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="I17" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31" t="s">
+      <c r="J17" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="P14" s="34" t="s">
+      <c r="K17" s="39" t="s">
         <v>141</v>
       </c>
+      <c r="M17" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" s="40"/>
+      <c r="O17" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="30" t="n">
+    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="D18" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="E18" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="I18" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="1" t="s">
+      <c r="J18" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31" t="s">
+      <c r="K18" s="13"/>
+      <c r="L18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="P15" s="34" t="s">
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13" t="s">
         <v>150</v>
       </c>
+      <c r="P18" s="40" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="16" s="44" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="42" t="n">
+    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="31" t="s">
+      <c r="D19" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="O16" s="43" t="s">
+      <c r="E19" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="I19" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="17" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="30" t="n">
+    <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36" t="s">
+      <c r="D20" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="P17" s="38" t="s">
+      <c r="E20" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="35" t="s">
         <v>160</v>
       </c>
+      <c r="I20" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" s="37"/>
+      <c r="N20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="18" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="30" t="n">
+    <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="M18" s="48" t="s">
+      <c r="D21" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="36" t="s">
+      <c r="E21" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="P18" s="38" t="s">
+      <c r="I21" s="43" t="s">
         <v>169</v>
       </c>
+      <c r="J21" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="P21" s="40" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="19" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="30" t="n">
+    <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="32" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="1" t="s">
+      <c r="D22" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36" t="s">
+      <c r="E22" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="P19" s="38" t="s">
+      <c r="I22" s="41" t="s">
         <v>176</v>
       </c>
+      <c r="J22" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="P22" s="37" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="20" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="n">
+    <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32" t="n">
+        <v>24</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="1" t="s">
+      <c r="G23" s="13"/>
+      <c r="H23" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36" t="s">
+      <c r="I23" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="P20" s="38" t="s">
+      <c r="J23" s="39" t="s">
         <v>184</v>
       </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="21" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="I21" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="I22" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O22" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" s="57" customFormat="true" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="53" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="H24" s="58"/>
-      <c r="O24" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="P25" s="38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://scholar.google.co.uk/citations?user=dRt0zE4AAAAJ&amp;hl=ca"/>
@@ -2760,24 +2394,24 @@
     <hyperlink ref="J14" r:id="rId22" display="https://scholar.google.com/citations?user=0GB6dpIAAAAJ&amp;hl=es"/>
     <hyperlink ref="I15" r:id="rId23" display="https://orcid.org/0000-0001-8163-1661"/>
     <hyperlink ref="J15" r:id="rId24" display="https://scholar.google.es/citations?user=Udp-josAAAAJ&amp;hl=es&amp;oi=sra"/>
-    <hyperlink ref="I17" r:id="rId25" display="https://orcid.org/0000-0002-4166-4685"/>
-    <hyperlink ref="J17" r:id="rId26" display="https://scholar.google.es/citations?view_op=list_works&amp;hl=ca&amp;user=RwwjbR8AAAAJ&amp;gmla=AGd7smEqBFFVH88vqEM97UvpGQRkSTN-QgGpVohaTgvxU9AHbk8ewXAa_lyn-Ls4baQMmGdb8sSmxhALWkh96WqT_3htEVVhNFtEsD46BRvmHVAC"/>
-    <hyperlink ref="I18" r:id="rId27" display="https://orcid.org/0000-0002-9438-1662"/>
-    <hyperlink ref="J18" r:id="rId28" display="https://scholar.google.com/citations?user=jAMoycYAAAAJ&amp;hl=ca&amp;oi=ao"/>
-    <hyperlink ref="K18" r:id="rId29" display="https://www.researchgate.net/profile/Pere-Monras-Riera-3?ev=hdr_xprf"/>
-    <hyperlink ref="I19" r:id="rId30" display="https://orcid.org/0000-0003-4680-6352"/>
-    <hyperlink ref="J19" r:id="rId31" display="https://scholar.google.es/citations?view_op=list_works&amp;hl=it&amp;user=RlKRLwQAAAAJ"/>
-    <hyperlink ref="I20" r:id="rId32" display="https://orcid.org/my-orcid?orcid=0000-0002-2812-4414"/>
-    <hyperlink ref="J20" r:id="rId33" display="https://scholar.google.es/citations?user=dVED18oAAAAJ&amp;hl=es&amp;oi=sra"/>
-    <hyperlink ref="I21" r:id="rId34" display="https://orcid.org/0009-0006-1599-9357"/>
-    <hyperlink ref="J21" r:id="rId35" display="https://scholar.google.com/citations?hl=es&amp;user=37txp4oAAAAJ"/>
-    <hyperlink ref="N21" r:id="rId36" display="https://bsky.app/profile/ainhoalopez.bsky.social"/>
-    <hyperlink ref="I22" r:id="rId37" display="https://orcid.org/0009-0006-7678-9337"/>
-    <hyperlink ref="J22" r:id="rId38" display="https://scholar.google.es/citations?view_op=list_works&amp;hl=en&amp;user=xZ33otQAAAAJ"/>
-    <hyperlink ref="I23" r:id="rId39" display="https://orcid.org/0009-0000-5937-2819"/>
-    <hyperlink ref="J23" r:id="rId40" display="https://scholar.google.es/citations?view_op=list_works&amp;hl=es&amp;user=Pp7ie7cAAAAJ&amp;gmla=AOv-ny9xwCSiAxoadH38LpB1MxFbZ7kuWGNiUjVgaDW9FSMpFBXI2s0K4SKQAatpg3MsY3N05P-ibvlYBq8dAq2pMI_YRiVOtMZubq9aSukIedzZi2TmXQ2b_gh56CPCphLUog8"/>
-    <hyperlink ref="I25" r:id="rId41" display="https://orcid.org/0009-0003-7746-2035"/>
-    <hyperlink ref="J25" r:id="rId42" display="https://scholar.google.com/citations?user=YdHnkqUAAAAJ&amp;hl=en"/>
+    <hyperlink ref="I16" r:id="rId25" display="https://orcid.org/0000-0002-4166-4685"/>
+    <hyperlink ref="J16" r:id="rId26" display="https://scholar.google.es/citations?view_op=list_works&amp;hl=ca&amp;user=RwwjbR8AAAAJ&amp;gmla=AGd7smEqBFFVH88vqEM97UvpGQRkSTN-QgGpVohaTgvxU9AHbk8ewXAa_lyn-Ls4baQMmGdb8sSmxhALWkh96WqT_3htEVVhNFtEsD46BRvmHVAC"/>
+    <hyperlink ref="I17" r:id="rId27" display="https://orcid.org/0000-0002-9438-1662"/>
+    <hyperlink ref="J17" r:id="rId28" display="https://scholar.google.com/citations?user=jAMoycYAAAAJ&amp;hl=ca&amp;oi=ao"/>
+    <hyperlink ref="K17" r:id="rId29" display="https://www.researchgate.net/profile/Pere-Monras-Riera-3?ev=hdr_xprf"/>
+    <hyperlink ref="I18" r:id="rId30" display="https://orcid.org/0000-0003-4680-6352"/>
+    <hyperlink ref="J18" r:id="rId31" display="https://scholar.google.es/citations?view_op=list_works&amp;hl=it&amp;user=RlKRLwQAAAAJ"/>
+    <hyperlink ref="I19" r:id="rId32" display="https://orcid.org/my-orcid?orcid=0000-0002-2812-4414"/>
+    <hyperlink ref="J19" r:id="rId33" display="https://scholar.google.es/citations?user=dVED18oAAAAJ&amp;hl=es&amp;oi=sra"/>
+    <hyperlink ref="I20" r:id="rId34" display="https://orcid.org/0009-0006-1599-9357"/>
+    <hyperlink ref="J20" r:id="rId35" display="https://scholar.google.com/citations?hl=es&amp;user=37txp4oAAAAJ"/>
+    <hyperlink ref="N20" r:id="rId36" display="https://bsky.app/profile/ainhoalopez.bsky.social"/>
+    <hyperlink ref="I21" r:id="rId37" display="https://orcid.org/0009-0006-7678-9337"/>
+    <hyperlink ref="J21" r:id="rId38" display="https://scholar.google.es/citations?view_op=list_works&amp;hl=en&amp;user=xZ33otQAAAAJ"/>
+    <hyperlink ref="I22" r:id="rId39" display="https://orcid.org/0009-0000-5937-2819"/>
+    <hyperlink ref="J22" r:id="rId40" display="https://scholar.google.es/citations?view_op=list_works&amp;hl=es&amp;user=Pp7ie7cAAAAJ&amp;gmla=AOv-ny9xwCSiAxoadH38LpB1MxFbZ7kuWGNiUjVgaDW9FSMpFBXI2s0K4SKQAatpg3MsY3N05P-ibvlYBq8dAq2pMI_YRiVOtMZubq9aSukIedzZi2TmXQ2b_gh56CPCphLUog8"/>
+    <hyperlink ref="I23" r:id="rId41" display="https://orcid.org/0009-0003-7746-2035"/>
+    <hyperlink ref="J23" r:id="rId42" display="https://scholar.google.com/citations?user=YdHnkqUAAAAJ&amp;hl=en"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
